--- a/biology/Botanique/Phylloromancie/Phylloromancie.xlsx
+++ b/biology/Botanique/Phylloromancie/Phylloromancie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phylloromancie ou phyllorhodomancie est une méthode divinatoire utilisant des pétales de roses, originaire des Grecs de l’Antiquité.
 Toujours employée aujourd'hui, elle consiste à frapper le front du consultant après y avoir posé un pétale de rose, puis à interpréter les bruits produits. Par exemple, si un pétale claque dans le creux de la main, c'est le signe d'un amour partagé.[réf. nécessaire]
-Le poète Guillaume Apollinaire appelait son ami Louis de Gonzague-Frick le « Prince de Phyllorhodomanciens »[1].
+Le poète Guillaume Apollinaire appelait son ami Louis de Gonzague-Frick le « Prince de Phyllorhodomanciens ».
 </t>
         </is>
       </c>
